--- a/Characters/Ariskia of Iyanden, A.K.A. Cpt. Phantom F. Harlock/Generic_Crew_v2.xlsx
+++ b/Characters/Ariskia of Iyanden, A.K.A. Cpt. Phantom F. Harlock/Generic_Crew_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\OneDrive\Role Playing Games\[D&amp;D] Dungeons &amp; Dragons\DnD_Character_Repository\Characters\Ariskia of Iyanden, A.K.A. Cpt. Phantom F. Harlock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\OneDrive\Role Playing Games\[D&amp;D] Dungeons &amp; Dragons\DnD_Character_Repository\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D189A-5CA4-4C31-821B-76675B59F965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D189A-5CA4-4C31-821B-76675B59F965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carrier" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Manual" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateCount="10"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="10" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -791,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1288,7 +1290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1340,10 +1342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1362,10 +1360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1400,17 +1394,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1450,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1462,17 +1449,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1794,21 +1788,21 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="5"/>
-    <col min="5" max="5" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="5"/>
-    <col min="11" max="11" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="13.15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1836,41 +1830,41 @@
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31">
+      <c r="B2" s="27"/>
+      <c r="C2" s="29">
         <f>SUM(C3:C14)</f>
         <v>101</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <f>SUM(I3:I12)</f>
         <v>3171</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2" s="48"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -1900,7 +1894,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1932,7 +1926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1964,7 +1958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -1994,7 +1988,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -2026,7 +2020,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -2056,7 +2050,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -2088,7 +2082,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -2118,7 +2112,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -2150,7 +2144,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -2182,7 +2176,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="13.15" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
@@ -2206,7 +2200,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="13.5" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>46</v>
@@ -2224,24 +2218,24 @@
       <c r="G14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="71"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31">
+      <c r="B15" s="26"/>
+      <c r="C15" s="29">
         <f ca="1">SUM(C16:C27)</f>
         <v>448</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="24" t="s">
         <v>49</v>
       </c>
@@ -2256,7 +2250,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>51</v>
@@ -2285,7 +2279,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -2314,7 +2308,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -2347,7 +2341,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -2380,7 +2374,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -2413,7 +2407,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -2445,7 +2439,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -2481,7 +2475,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="13.15" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -2496,13 +2490,13 @@
         <v>14</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="13.15" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -2520,16 +2514,16 @@
         <v>72</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="74"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -2547,16 +2541,16 @@
         <v>72</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.15" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -2574,14 +2568,14 @@
         <v>77</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.15" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>78</v>
@@ -2598,35 +2592,35 @@
       <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31">
+      <c r="B28" s="26"/>
+      <c r="C28" s="29">
         <f ca="1">SUM(C29:C36)</f>
         <v>117</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="48"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>81</v>
@@ -2641,16 +2635,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>83</v>
@@ -2665,14 +2659,14 @@
         <v>84</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>85</v>
@@ -2689,14 +2683,14 @@
       <c r="F31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.15" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>87</v>
@@ -2713,14 +2707,14 @@
       <c r="F32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>88</v>
@@ -2744,7 +2738,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>89</v>
@@ -2766,7 +2760,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -2791,7 +2785,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="13.15" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -2816,18 +2810,18 @@
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="13.5" thickBot="1">
       <c r="A37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="31">
+      <c r="B37" s="26"/>
+      <c r="C37" s="29">
         <f ca="1">SUM(C38:C50)</f>
         <v>571</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="12"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2835,7 +2829,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>95</v>
@@ -2857,7 +2851,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -2881,7 +2875,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>97</v>
@@ -2903,7 +2897,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>98</v>
@@ -2927,7 +2921,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>100</v>
@@ -2949,7 +2943,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>101</v>
@@ -2973,7 +2967,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>102</v>
@@ -2995,7 +2989,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>103</v>
@@ -3019,7 +3013,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -3044,7 +3038,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>106</v>
@@ -3066,7 +3060,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>107</v>
@@ -3090,7 +3084,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>108</v>
@@ -3114,7 +3108,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="13.15" thickBot="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>109</v>
@@ -3137,18 +3131,18 @@
       <c r="K50" s="1"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="13.5" thickBot="1">
       <c r="A51" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31">
+      <c r="B51" s="26"/>
+      <c r="C51" s="29">
         <f>SUM(C52:C56)</f>
         <v>202</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3156,7 +3150,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>112</v>
@@ -3178,7 +3172,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>113</v>
@@ -3202,7 +3196,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>115</v>
@@ -3226,7 +3220,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>116</v>
@@ -3250,7 +3244,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="13.15" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>117</v>
@@ -3272,18 +3266,18 @@
       <c r="K56" s="1"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="13.5" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31">
+      <c r="B57" s="28"/>
+      <c r="C57" s="29">
         <f>SUM(C58:C65)</f>
         <v>479</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
       <c r="G57" s="12"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3291,7 +3285,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>120</v>
@@ -3315,7 +3309,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>122</v>
@@ -3337,7 +3331,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>123</v>
@@ -3359,7 +3353,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>125</v>
@@ -3381,7 +3375,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>126</v>
@@ -3405,7 +3399,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -3429,7 +3423,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>130</v>
@@ -3453,7 +3447,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="13.15" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>131</v>
@@ -3477,18 +3471,18 @@
       <c r="K65" s="1"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
+    <row r="66" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A66" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="31">
+      <c r="B66" s="70"/>
+      <c r="C66" s="29">
         <f ca="1">SUM(C67:C72)</f>
         <v>580</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="12"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3496,7 +3490,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>133</v>
@@ -3520,7 +3514,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -3545,7 +3539,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -3567,7 +3561,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>138</v>
@@ -3591,7 +3585,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>139</v>
@@ -3615,7 +3609,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>140</v>
@@ -3641,6 +3635,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D37:F37"/>
@@ -3650,11 +3649,6 @@
     <mergeCell ref="G25:L26"/>
     <mergeCell ref="G27:L28"/>
     <mergeCell ref="G29:L32"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -3671,21 +3665,21 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="5"/>
-    <col min="5" max="5" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="5"/>
-    <col min="11" max="11" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="13.15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3713,29 +3707,29 @@
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29">
         <f>SUM(C3:C14)</f>
         <v>17</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="14"/>
@@ -3743,11 +3737,11 @@
         <f>SUM(I3:I12)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2" s="48"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -3777,7 +3771,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -3809,7 +3803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -3841,7 +3835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -3871,7 +3865,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -3903,7 +3897,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -3933,7 +3927,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -3965,7 +3959,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -3995,7 +3989,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -4027,7 +4021,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -4059,7 +4053,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="13.15" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
@@ -4083,7 +4077,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="13.5" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>46</v>
@@ -4107,18 +4101,18 @@
       <c r="K14" s="17"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="13.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29">
         <f ca="1">SUM(C16:C27)</f>
         <v>10</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="24" t="s">
         <v>49</v>
       </c>
@@ -4133,7 +4127,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>51</v>
@@ -4162,7 +4156,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -4191,7 +4185,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -4224,7 +4218,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -4257,7 +4251,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -4290,7 +4284,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -4322,7 +4316,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -4358,7 +4352,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="13.15" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -4373,13 +4367,13 @@
         <v>14</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="13.15" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -4397,16 +4391,16 @@
         <v>72</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="74"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -4424,16 +4418,16 @@
         <v>72</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.15" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -4451,14 +4445,14 @@
         <v>77</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.15" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>78</v>
@@ -4475,35 +4469,35 @@
       <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29">
         <f ca="1">SUM(C29:C36)</f>
         <v>17</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="48"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>81</v>
@@ -4518,16 +4512,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>83</v>
@@ -4542,14 +4536,14 @@
         <v>84</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>85</v>
@@ -4566,14 +4560,14 @@
       <c r="F31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.15" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>87</v>
@@ -4590,14 +4584,14 @@
       <c r="F32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>88</v>
@@ -4621,7 +4615,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>89</v>
@@ -4643,7 +4637,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -4668,7 +4662,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="13.15" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -4693,18 +4687,18 @@
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="13.5" thickBot="1">
       <c r="A37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29">
         <f ca="1">SUM(C38:C50)</f>
         <v>4</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -4712,7 +4706,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="23"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>95</v>
@@ -4734,7 +4728,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -4758,7 +4752,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>97</v>
@@ -4780,7 +4774,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>98</v>
@@ -4804,7 +4798,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>100</v>
@@ -4826,7 +4820,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>101</v>
@@ -4850,7 +4844,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>102</v>
@@ -4872,7 +4866,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>103</v>
@@ -4896,7 +4890,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -4921,7 +4915,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>106</v>
@@ -4943,7 +4937,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>107</v>
@@ -4967,7 +4961,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>108</v>
@@ -4991,7 +4985,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="13.15" thickBot="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>109</v>
@@ -5013,18 +5007,18 @@
       <c r="K50" s="1"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="13.5" thickBot="1">
       <c r="A51" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31">
+      <c r="B51" s="26"/>
+      <c r="C51" s="29">
         <f>SUM(C52:C56)</f>
         <v>6</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -5032,7 +5026,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>112</v>
@@ -5054,7 +5048,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>113</v>
@@ -5078,7 +5072,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>115</v>
@@ -5102,7 +5096,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>116</v>
@@ -5126,7 +5120,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="13.15" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>117</v>
@@ -5148,18 +5142,18 @@
       <c r="K56" s="1"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="13.5" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31">
+      <c r="B57" s="28"/>
+      <c r="C57" s="29">
         <f ca="1">SUM(C58:C65)</f>
         <v>47</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -5167,7 +5161,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="23"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>120</v>
@@ -5191,7 +5185,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>122</v>
@@ -5213,7 +5207,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
@@ -5238,7 +5232,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>125</v>
@@ -5260,7 +5254,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>126</v>
@@ -5284,7 +5278,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -5308,7 +5302,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>130</v>
@@ -5332,7 +5326,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="13.15" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>131</v>
@@ -5356,18 +5350,18 @@
       <c r="K65" s="1"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
+    <row r="66" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A66" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="77"/>
+      <c r="B66" s="76"/>
       <c r="C66" s="14">
         <f ca="1">SUM(C67:C72)</f>
         <v>5</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="76"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -5375,7 +5369,7 @@
       <c r="K66" s="12"/>
       <c r="L66" s="23"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>133</v>
@@ -5399,7 +5393,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -5424,7 +5418,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -5446,7 +5440,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>138</v>
@@ -5470,7 +5464,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>139</v>
@@ -5494,7 +5488,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>140</v>
@@ -5520,6 +5514,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:F66"/>
     <mergeCell ref="G29:L32"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="J2:L2"/>
@@ -5528,11 +5527,6 @@
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="G25:L26"/>
     <mergeCell ref="G27:L28"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:F66"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -5549,21 +5543,21 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="5"/>
-    <col min="5" max="5" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="5"/>
-    <col min="11" max="11" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="13.15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5591,41 +5585,41 @@
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31">
+      <c r="B2" s="27"/>
+      <c r="C2" s="29">
         <f>SUM(C3:C14)</f>
         <v>43</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <f>SUM(I3:I12)</f>
         <v>103</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2" s="48"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -5655,7 +5649,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -5687,7 +5681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -5719,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -5749,7 +5743,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -5781,7 +5775,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -5811,7 +5805,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -5843,7 +5837,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -5873,7 +5867,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -5905,7 +5899,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -5937,7 +5931,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="13.15" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
@@ -5961,7 +5955,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="13.5" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>46</v>
@@ -5979,24 +5973,24 @@
       <c r="G14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="71"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <f ca="1">SUM(C16:C27)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="24" t="s">
         <v>49</v>
       </c>
@@ -6011,7 +6005,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>51</v>
@@ -6040,7 +6034,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -6069,7 +6063,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -6102,7 +6096,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -6135,7 +6129,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -6168,7 +6162,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -6200,7 +6194,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -6236,7 +6230,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="13.15" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -6251,13 +6245,13 @@
         <v>14</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="13.15" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -6275,16 +6269,16 @@
         <v>72</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="74"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -6302,16 +6296,16 @@
         <v>72</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.15" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -6329,14 +6323,14 @@
         <v>77</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.15" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>78</v>
@@ -6353,35 +6347,35 @@
       <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <f ca="1">SUM(C29:C36)</f>
         <v>34</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="48"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>81</v>
@@ -6396,16 +6390,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>83</v>
@@ -6420,14 +6414,14 @@
         <v>84</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>85</v>
@@ -6444,14 +6438,14 @@
       <c r="F31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.15" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>87</v>
@@ -6468,14 +6462,14 @@
       <c r="F32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>88</v>
@@ -6499,7 +6493,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>89</v>
@@ -6521,7 +6515,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -6546,7 +6540,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="13.15" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -6571,18 +6565,18 @@
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="13.5" thickBot="1">
       <c r="A37" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="31">
+      <c r="C37" s="29">
         <f ca="1">SUM(C38:C50)</f>
         <v>71</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="12"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -6590,7 +6584,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>95</v>
@@ -6612,7 +6606,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -6636,7 +6630,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>97</v>
@@ -6658,7 +6652,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>98</v>
@@ -6682,7 +6676,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>100</v>
@@ -6704,7 +6698,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>101</v>
@@ -6728,7 +6722,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>102</v>
@@ -6750,7 +6744,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>103</v>
@@ -6774,7 +6768,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -6799,7 +6793,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>106</v>
@@ -6821,7 +6815,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>107</v>
@@ -6845,7 +6839,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>108</v>
@@ -6869,7 +6863,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="13.15" thickBot="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>109</v>
@@ -6891,18 +6885,18 @@
       <c r="K50" s="1"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="13.5" thickBot="1">
       <c r="A51" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="16"/>
-      <c r="C51" s="31">
+      <c r="C51" s="29">
         <f>SUM(C52:C56)</f>
         <v>12</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -6910,7 +6904,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>112</v>
@@ -6932,7 +6926,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>113</v>
@@ -6956,7 +6950,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>115</v>
@@ -6980,7 +6974,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>116</v>
@@ -7004,7 +6998,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="13.15" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>117</v>
@@ -7026,18 +7020,18 @@
       <c r="K56" s="1"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="13.5" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="31">
+      <c r="C57" s="29">
         <f ca="1">SUM(C58:C65)</f>
         <v>99</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
       <c r="G57" s="12"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -7045,7 +7039,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>120</v>
@@ -7069,7 +7063,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>122</v>
@@ -7091,7 +7085,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
@@ -7116,7 +7110,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>125</v>
@@ -7138,7 +7132,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>126</v>
@@ -7162,7 +7156,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -7186,7 +7180,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>130</v>
@@ -7210,7 +7204,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="13.15" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>131</v>
@@ -7234,18 +7228,18 @@
       <c r="K65" s="1"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" ht="13.5" thickBot="1">
       <c r="A66" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31">
+      <c r="B66" s="28"/>
+      <c r="C66" s="29">
         <f ca="1">SUM(C67:C72)</f>
         <v>228</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="12"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -7253,7 +7247,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>133</v>
@@ -7277,7 +7271,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -7302,7 +7296,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -7324,7 +7318,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>138</v>
@@ -7348,7 +7342,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>139</v>
@@ -7372,7 +7366,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>140</v>
@@ -7427,21 +7421,21 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="5"/>
-    <col min="5" max="5" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="5"/>
-    <col min="11" max="11" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="13.15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7469,41 +7463,41 @@
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31">
+      <c r="B2" s="27"/>
+      <c r="C2" s="29">
         <f>SUM(C3:C14)</f>
         <v>64</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <f>SUM(I3:I12)</f>
         <v>488</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2" s="48"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
@@ -7531,7 +7525,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -7563,7 +7557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -7595,7 +7589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -7625,7 +7619,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -7657,7 +7651,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -7687,7 +7681,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -7719,7 +7713,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -7750,7 +7744,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -7782,7 +7776,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -7814,7 +7808,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="13.15" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
@@ -7838,7 +7832,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="13.5" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>46</v>
@@ -7856,24 +7850,24 @@
       <c r="G14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="71"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31">
+      <c r="B15" s="26"/>
+      <c r="C15" s="29">
         <f ca="1">SUM(C16:C27)</f>
         <v>144</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="24" t="s">
         <v>49</v>
       </c>
@@ -7888,7 +7882,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -7916,7 +7910,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -7945,7 +7939,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -7978,7 +7972,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -8011,7 +8005,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -8044,7 +8038,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -8076,7 +8070,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -8112,7 +8106,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="13.15" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -8127,14 +8121,14 @@
         <v>14</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
       <c r="K23" s="6"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="13.15" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -8152,16 +8146,16 @@
         <v>72</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="74"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -8179,16 +8173,16 @@
         <v>72</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.15" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -8206,14 +8200,14 @@
         <v>77</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="68"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.15" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>78</v>
@@ -8230,35 +8224,35 @@
       <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31">
+      <c r="B28" s="26"/>
+      <c r="C28" s="29">
         <f ca="1">SUM(C29:C36)</f>
         <v>47</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="48"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
       <c r="B29" s="9" t="s">
         <v>81</v>
       </c>
@@ -8272,16 +8266,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>83</v>
@@ -8296,14 +8290,14 @@
         <v>84</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>85</v>
@@ -8320,14 +8314,14 @@
       <c r="F31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.15" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>87</v>
@@ -8344,14 +8338,14 @@
       <c r="F32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>88</v>
@@ -8375,7 +8369,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>89</v>
@@ -8397,7 +8391,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -8422,7 +8416,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="13.15" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -8447,18 +8441,18 @@
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="13.5" thickBot="1">
       <c r="A37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="31">
+      <c r="B37" s="26"/>
+      <c r="C37" s="29">
         <f ca="1">SUM(C38:C50)</f>
         <v>152</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="12"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -8466,7 +8460,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="B38" s="9" t="s">
         <v>95</v>
       </c>
@@ -8487,7 +8481,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>96</v>
@@ -8511,7 +8505,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>97</v>
@@ -8533,7 +8527,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>98</v>
@@ -8557,7 +8551,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>100</v>
@@ -8579,7 +8573,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>101</v>
@@ -8603,7 +8597,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>102</v>
@@ -8625,7 +8619,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>103</v>
@@ -8649,7 +8643,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -8674,7 +8668,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>106</v>
@@ -8696,7 +8690,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>107</v>
@@ -8720,7 +8714,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>108</v>
@@ -8744,7 +8738,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="13.15" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -8769,18 +8763,18 @@
       <c r="K50" s="1"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="13.5" thickBot="1">
       <c r="A51" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31">
+      <c r="B51" s="26"/>
+      <c r="C51" s="29">
         <f>SUM(C52:C56)</f>
         <v>20</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -8788,7 +8782,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="B52" s="9" t="s">
         <v>112</v>
       </c>
@@ -8809,7 +8803,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>113</v>
@@ -8833,7 +8827,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>115</v>
@@ -8857,7 +8851,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>116</v>
@@ -8881,7 +8875,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="13.15" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>117</v>
@@ -8903,18 +8897,18 @@
       <c r="K56" s="1"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="13.5" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31">
+      <c r="B57" s="28"/>
+      <c r="C57" s="29">
         <f ca="1">SUM(C58:C65)</f>
         <v>147</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
       <c r="G57" s="12"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -8922,7 +8916,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="B58" s="9" t="s">
         <v>120</v>
       </c>
@@ -8945,7 +8939,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>122</v>
@@ -8967,7 +8961,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
@@ -8992,7 +8986,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>125</v>
@@ -9014,7 +9008,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>126</v>
@@ -9038,7 +9032,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -9062,7 +9056,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>130</v>
@@ -9086,7 +9080,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="13.15" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>131</v>
@@ -9110,18 +9104,18 @@
       <c r="K65" s="1"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
+    <row r="66" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A66" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="31">
+      <c r="B66" s="70"/>
+      <c r="C66" s="29">
         <f ca="1">SUM(C67:C72)</f>
         <v>633</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="12"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -9129,7 +9123,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="B67" s="9" t="s">
         <v>133</v>
       </c>
@@ -9152,7 +9146,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -9177,7 +9171,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -9199,7 +9193,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>138</v>
@@ -9223,7 +9217,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>139</v>
@@ -9247,13 +9241,1887 @@
       <c r="K71" s="1"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L26"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="G29:L32"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D37:F37"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29">
+        <f>SUM(C3:C14)</f>
+        <v>9</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="29">
+        <f>SUM(I3:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="71"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29">
+        <f ca="1">SUM(C16:C27)</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="9">
+        <f ca="1">SUM(C2,C15,C28,C37,C51,C57,C66)</f>
+        <v>51</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1">
+        <f ca="1">SUM(I15:I16)</f>
+        <v>51</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1">
+        <f ca="1">SUM(C3:C6,C10:C12,C16:C24,C29:C30,C32,C34:C35,C38,C40,C42,C52:C53,C59,C61,C64:C65,C72,I3,I8:I9)</f>
+        <v>16</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="1">
+        <f ca="1">SUM(C7:C9,C13:C14,C26:C27,C31,C33,C36,C39,C43:C50,C54:C56,C58,C60,C62:C64,C69:C71,I4:I7,I10:I12)</f>
+        <v>32</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="2">
+        <f ca="1">SUM(C41,C68,C67)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1">
+        <f ca="1">ROUNDUP(I22/250,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="3">
+        <f ca="1">SUM(I17,I21)</f>
+        <v>51</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1">
+        <f ca="1">2*(C22+C21)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="74"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1">
+        <f ca="1">2*(C22+C21)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1">
+        <f ca="1">ROUNDUP(I22/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="29">
+        <f ca="1">SUM(C29:C36)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1">
+      <c r="B29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1">
+        <f ca="1">ROUNDUP(I22/600,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="6">
+        <f ca="1">ROUNDUP(I22/225,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="29">
+        <f ca="1">SUM(C38:C50)</f>
+        <v>4</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1">
+        <f ca="1">ROUNDUP(I22/40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A51" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="29">
+        <f>SUM(C52:C56)</f>
+        <v>3</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A57" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29">
+        <f ca="1">SUM(C58:C65)</f>
+        <v>12</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="9">
+        <v>8</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="1">
+        <f ca="1">ROUNDUP(I22/175,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.15" thickBot="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A66" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="70"/>
+      <c r="C66" s="14">
+        <f ca="1">SUM(C67:C72)</f>
+        <v>5</v>
+      </c>
+      <c r="D66" s="48"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="B67" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1">
+        <f ca="1">ROUNDUP(I22/200, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>9</v>
@@ -9295,2750 +11163,851 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L72"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="5"/>
-    <col min="5" max="5" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="5"/>
-    <col min="11" max="11" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31">
-        <f>SUM(C3:C14)</f>
-        <v>9</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="31">
-        <f>SUM(I3:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31">
-        <f ca="1">SUM(C16:C27)</f>
-        <v>9</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="9">
-        <f ca="1">SUM(C2,C15,C28,C37,C51,C57,C66)</f>
-        <v>51</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="1">
-        <f>I2</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="1">
-        <f ca="1">SUM(I15:I16)</f>
-        <v>51</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="1">
-        <f ca="1">SUM(C3:C6,C10:C12,C16:C24,C29:C30,C32,C34:C35,C38,C40,C42,C52:C53,C59,C61,C64:C65,C72,I3,I8:I9)</f>
-        <v>16</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="1">
-        <f ca="1">SUM(C7:C9,C13:C14,C26:C27,C31,C33,C36,C39,C43:C50,C54:C56,C58,C60,C62:C64,C69:C71,I4:I7,I10:I12)</f>
-        <v>32</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="2">
-        <f ca="1">SUM(C41,C68,C67)</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1">
-        <f ca="1">ROUNDUP(I22/250,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="3">
-        <f ca="1">SUM(I17,I21)</f>
-        <v>51</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1">
-        <f ca="1">2*(C22+C21)</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1">
-        <f ca="1">2*(C22+C21)</f>
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1">
-        <f ca="1">ROUNDUP(I22/100,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31">
-        <f ca="1">SUM(C29:C36)</f>
-        <v>9</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="1">
-        <f ca="1">ROUNDUP(I22/600,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="6">
-        <f ca="1">ROUNDUP(I22/225,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="31">
-        <f ca="1">SUM(C38:C50)</f>
-        <v>4</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="1">
-        <f ca="1">ROUNDUP(I22/40,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31">
-        <f>SUM(C52:C56)</f>
-        <v>3</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="9">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31">
-        <f ca="1">SUM(C58:C65)</f>
-        <v>12</v>
-      </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="9">
-        <v>8</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="1">
-        <f ca="1">ROUNDUP(I22/175,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="14">
-        <f ca="1">SUM(C67:C72)</f>
-        <v>5</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="9">
-        <v>0</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="1">
-        <f ca="1">ROUNDUP(I22/200, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="1">
-        <v>3</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L26"/>
-    <mergeCell ref="G27:L28"/>
-    <mergeCell ref="G29:L32"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D37:F37"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="109.73046875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:3" ht="13.15">
+      <c r="A2" s="40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="51" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="1:3" ht="38.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:3" ht="25.5">
+      <c r="A5" s="40"/>
+      <c r="B5" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:3" ht="38.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="1:3" ht="25.5">
+      <c r="A10" s="41"/>
+      <c r="B10" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="25.5">
+      <c r="A11" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="34" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
+      <c r="A12" s="40"/>
+      <c r="B12" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="34" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="13.15">
+      <c r="A14" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="42" t="s">
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.15">
+      <c r="A15" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="25.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:3" ht="13.15">
+      <c r="A28" s="38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="25.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="4"/>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="4"/>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="4"/>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" s="4"/>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="25.5">
       <c r="A39" s="4"/>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" s="6"/>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="42" t="s">
+    <row r="41" spans="1:4" ht="13.15">
+      <c r="A41" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42"/>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="25.5">
       <c r="A43" s="1"/>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="25.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="25.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="32" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" s="4"/>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" s="8"/>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A50" s="42" t="s">
+    <row r="50" spans="1:3" ht="13.15">
+      <c r="A50" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51"/>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" s="1"/>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" s="1"/>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="25.5">
       <c r="A55" s="1"/>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" s="1"/>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" s="1"/>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="4"/>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" s="1"/>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="33" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" s="1"/>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" s="1"/>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="13.15" thickBot="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" ht="13.5" thickBot="1">
       <c r="A64" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="46"/>
-    </row>
-    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="42"/>
+    </row>
+    <row r="65" spans="1:3" ht="25.5">
       <c r="A65"/>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="25.5">
       <c r="A66" s="1"/>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="25.5">
       <c r="A67" s="1"/>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="25.5">
       <c r="A68" s="1"/>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="13.15" thickBot="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" ht="13.5" thickBot="1">
       <c r="A70" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="47"/>
-    </row>
-    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="43"/>
+    </row>
+    <row r="71" spans="1:3" ht="25.5">
       <c r="A71"/>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" s="1"/>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="33" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" s="4"/>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="25.5">
       <c r="A74" s="1"/>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" s="1"/>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="33" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" s="1"/>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" s="1"/>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="13.15" thickBot="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="51" t="s">
+    <row r="79" spans="1:3" ht="13.5" thickBot="1">
+      <c r="A79" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="48"/>
-    </row>
-    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="44"/>
+    </row>
+    <row r="80" spans="1:3" ht="25.5">
       <c r="A80"/>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="33" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="1"/>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="1"/>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="1"/>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="13.15" thickBot="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" ht="13.5" thickBot="1">
       <c r="A86" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="49"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="45"/>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87"/>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="1"/>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="1"/>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" s="1"/>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" s="1"/>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" s="1"/>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" s="1"/>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="1"/>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="33" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="25.5">
       <c r="A95" s="1"/>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="25.5">
       <c r="A96" s="1"/>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="33" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12059,7 +12028,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
